--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot; mi&quot;;[Red]\-#,##0.00&quot; mi&quot;"/>
-    <numFmt numFmtId="169" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="[$-40C]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; mi&quot;;[Red]\-#,##0.00&quot; mi&quot;"/>
+    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -126,39 +126,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -170,6 +170,50 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="\j"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -305,50 +349,6 @@
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="j"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -360,18 +360,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="24">
+    <tableColumn id="1" name="Lundi" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="23"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="22"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="21"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="20"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="19"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="18"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="5"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="4"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="3"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="2"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="1"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -732,10 +732,12 @@
       <c r="H3" s="11">
         <v>4</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>6.31</v>
+      </c>
       <c r="J3" s="11">
         <f xml:space="preserve"> 464.77 + $I$3</f>
-        <v>464.77</v>
+        <v>471.08</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="11"/>
@@ -1190,7 +1192,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>464.77</v>
+        <v>471.08</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1203,7 +1205,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0</v>
+        <v>4.0132290275392779E-2</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1218,70 +1220,70 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>157.23000000000002</v>
+        <v>150.92000000000002</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43034</v>
+        <v>43035</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="14" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="13" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1300,17 +1302,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -733,11 +733,12 @@
         <v>4</v>
       </c>
       <c r="I3" s="2">
-        <v>6.31</v>
+        <f>6.31+6.81</f>
+        <v>13.12</v>
       </c>
       <c r="J3" s="11">
         <f xml:space="preserve"> 464.77 + $I$3</f>
-        <v>471.08</v>
+        <v>477.89</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="11"/>
@@ -1192,7 +1193,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>471.08</v>
+        <v>477.89</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>4.0132290275392779E-2</v>
+        <v>8.3444635247726273E-2</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1220,11 +1221,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>150.92000000000002</v>
+        <v>144.11000000000001</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43035</v>
+        <v>43036</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,10 +781,12 @@
       <c r="H4" s="11">
         <v>18</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="11" t="str">
+      <c r="I4" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="J4" s="11">
         <f ca="1">IF(TODAY() &gt;= A4,J3+I4,"")</f>
-        <v/>
+        <v>484.78</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="11">
@@ -1193,7 +1195,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>477.89</v>
+        <v>484.78</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1206,7 +1208,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>8.3444635247726273E-2</v>
+        <v>0.12726578897157026</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1221,11 +1223,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>144.11000000000001</v>
+        <v>137.22000000000003</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43036</v>
+        <v>43039</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,11 +782,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <v>6.89</v>
+        <f xml:space="preserve"> 6.89 + 7.08</f>
+        <v>13.969999999999999</v>
       </c>
       <c r="J4" s="11">
         <f ca="1">IF(TODAY() &gt;= A4,J3+I4,"")</f>
-        <v>484.78</v>
+        <v>491.86</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="11">
@@ -1195,7 +1196,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>484.78</v>
+        <v>491.86</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1208,7 +1209,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.12726578897157026</v>
+        <v>0.1722953634802521</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1223,11 +1224,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>137.22000000000003</v>
+        <v>130.13999999999999</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43039</v>
+        <v>43040</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,12 +782,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <f xml:space="preserve"> 6.89 + 7.08</f>
-        <v>13.969999999999999</v>
+        <f xml:space="preserve"> 6.89 + 7.08 + 6.21</f>
+        <v>20.18</v>
       </c>
       <c r="J4" s="11">
         <f ca="1">IF(TODAY() &gt;= A4,J3+I4,"")</f>
-        <v>491.86</v>
+        <v>498.07</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="11">
@@ -1196,7 +1196,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>491.86</v>
+        <v>498.07</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.1722953634802521</v>
+        <v>0.21179164281625651</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>130.13999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43040</v>
+        <v>43041</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -782,12 +782,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <f xml:space="preserve"> 6.89 + 7.08 + 6.21</f>
-        <v>20.18</v>
+        <f xml:space="preserve"> 6.89 + 7.08 + 6.21 + 6.15</f>
+        <v>26.33</v>
       </c>
       <c r="J4" s="11">
         <f ca="1">IF(TODAY() &gt;= A4,J3+I4,"")</f>
-        <v>498.07</v>
+        <v>504.21999999999997</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="11">
@@ -1196,7 +1196,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>498.07</v>
+        <v>504.21999999999997</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.21179164281625651</v>
+        <v>0.25090631558862797</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>123.93</v>
+        <v>117.78000000000003</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43041</v>
+        <v>43043</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -782,12 +782,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <f xml:space="preserve"> 6.89 + 7.08 + 6.21 + 6.15</f>
-        <v>26.33</v>
+        <f xml:space="preserve"> 6.89 + 7.08 + 6.21 + 6.15 + 6.18 + 1.41</f>
+        <v>33.919999999999995</v>
       </c>
       <c r="J4" s="11">
         <f ca="1">IF(TODAY() &gt;= A4,J3+I4,"")</f>
-        <v>504.21999999999997</v>
+        <v>511.81</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="11">
@@ -1196,7 +1196,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>504.21999999999997</v>
+        <v>511.81</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.25090631558862797</v>
+        <v>0.2991795458881894</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>117.78000000000003</v>
+        <v>110.19</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43043</v>
+        <v>43044</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -831,10 +831,12 @@
       <c r="H5" s="11">
         <v>18</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="11" t="str">
+      <c r="I5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" ref="J5:J12" ca="1" si="1">IF(TODAY() &gt;= A5,J4+I5,"")</f>
-        <v/>
+        <v>517.91</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="11">
@@ -1196,7 +1198,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>511.81</v>
+        <v>517.91</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1209,7 +1211,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.2991795458881894</v>
+        <v>0.33797621319086679</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1224,11 +1226,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>110.19</v>
+        <v>104.09000000000003</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43044</v>
+        <v>43046</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -832,11 +832,12 @@
         <v>18</v>
       </c>
       <c r="I5" s="2">
-        <v>6.1</v>
+        <f xml:space="preserve"> 6.1 + 7.2</f>
+        <v>13.3</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" ref="J5:J12" ca="1" si="1">IF(TODAY() &gt;= A5,J4+I5,"")</f>
-        <v>517.91</v>
+        <v>525.11</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="11">
@@ -1198,7 +1199,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>517.91</v>
+        <v>525.11</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.33797621319086679</v>
+        <v>0.38376900082681442</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1226,11 +1227,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>104.09000000000003</v>
+        <v>96.889999999999986</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43046</v>
+        <v>43048</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -832,12 +832,12 @@
         <v>18</v>
       </c>
       <c r="I5" s="2">
-        <f xml:space="preserve"> 6.1 + 7.2</f>
-        <v>13.3</v>
+        <f xml:space="preserve"> 6.1 + 7.2 + 6.49 + 1.09</f>
+        <v>20.88</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" ref="J5:J12" ca="1" si="1">IF(TODAY() &gt;= A5,J4+I5,"")</f>
-        <v>525.11</v>
+        <v>532.69000000000005</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="11">
@@ -1199,7 +1199,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>525.11</v>
+        <v>532.69000000000005</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.38376900082681442</v>
+        <v>0.43197863003243697</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1227,11 +1227,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>96.889999999999986</v>
+        <v>89.309999999999945</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43048</v>
+        <v>43051</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -881,10 +881,12 @@
       <c r="H6" s="11">
         <v>18</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="11" t="str">
+      <c r="I6" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="J6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>539.95000000000005</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="11">
@@ -1199,7 +1201,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>532.69000000000005</v>
+        <v>539.95000000000005</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1212,7 +1214,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.43197863003243697</v>
+        <v>0.47815302423201711</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1227,11 +1229,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>89.309999999999945</v>
+        <v>82.049999999999955</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43051</v>
+        <v>43053</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -882,11 +882,12 @@
         <v>18</v>
       </c>
       <c r="I6" s="2">
-        <v>7.26</v>
+        <f>+ 7.26 + 7.55</f>
+        <v>14.809999999999999</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>539.95000000000005</v>
+        <v>547.5</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="11">
@@ -1201,7 +1202,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>539.95000000000005</v>
+        <v>547.5</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.47815302423201711</v>
+        <v>0.5261718501558228</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1229,11 +1230,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>82.049999999999955</v>
+        <v>74.5</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -882,12 +882,12 @@
         <v>18</v>
       </c>
       <c r="I6" s="2">
-        <f>+ 7.26 + 7.55</f>
-        <v>14.809999999999999</v>
+        <f>+ 7.26 + 7.55 + 6.66</f>
+        <v>21.47</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>547.5</v>
+        <v>554.16000000000008</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="11">
@@ -1202,7 +1202,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>547.5</v>
+        <v>554.16000000000008</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.5261718501558228</v>
+        <v>0.56853017871907452</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>74.5</v>
+        <v>67.839999999999918</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -882,12 +882,12 @@
         <v>18</v>
       </c>
       <c r="I6" s="2">
-        <f>+ 7.26 + 7.55 + 6.66</f>
-        <v>21.47</v>
+        <f>+ 7.26 + 7.55 + 6.66 + 7.64</f>
+        <v>29.11</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>554.16000000000008</v>
+        <v>561.80000000000007</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="11">
@@ -1202,7 +1202,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>554.16000000000008</v>
+        <v>561.80000000000007</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.56853017871907452</v>
+        <v>0.61712141448832969</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>67.839999999999918</v>
+        <v>60.199999999999932</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43055</v>
+        <v>43057</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -882,12 +882,12 @@
         <v>18</v>
       </c>
       <c r="I6" s="2">
-        <f>+ 7.26 + 7.55 + 6.66 + 7.64</f>
-        <v>29.11</v>
+        <f>+ 7.26 + 7.55 + 6.66 + 7.64 + 6.08</f>
+        <v>35.19</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>561.80000000000007</v>
+        <v>567.88000000000011</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="11">
@@ -1202,7 +1202,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>561.80000000000007</v>
+        <v>567.88000000000011</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.61712141448832969</v>
+        <v>0.65579087960312998</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>60.199999999999932</v>
+        <v>54.119999999999891</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43057</v>
+        <v>43058</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -931,10 +931,12 @@
       <c r="H7" s="11">
         <v>18</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="11" t="str">
+      <c r="I7" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="J7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>573.60000000000014</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="11">
@@ -1202,7 +1204,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>567.88000000000011</v>
+        <v>573.60000000000014</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1215,7 +1217,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.65579087960312998</v>
+        <v>0.69217070533613267</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1230,11 +1232,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>54.119999999999891</v>
+        <v>48.399999999999864</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43058</v>
+        <v>43060</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -932,11 +932,12 @@
         <v>18</v>
       </c>
       <c r="I7" s="2">
-        <v>5.72</v>
+        <f xml:space="preserve"> 5.72 + 6.56</f>
+        <v>12.28</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>573.60000000000014</v>
+        <v>580.16000000000008</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="11">
@@ -1204,7 +1205,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>573.60000000000014</v>
+        <v>580.16000000000008</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.69217070533613267</v>
+        <v>0.73389302295999548</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1232,11 +1233,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>48.399999999999864</v>
+        <v>41.839999999999918</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43060</v>
+        <v>43063</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -932,12 +932,12 @@
         <v>18</v>
       </c>
       <c r="I7" s="2">
-        <f xml:space="preserve"> 5.72 + 6.56</f>
-        <v>12.28</v>
+        <f xml:space="preserve"> 5.72 + 6.56 + 7.25</f>
+        <v>19.53</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>580.16000000000008</v>
+        <v>587.41000000000008</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="11">
@@ -1205,7 +1205,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>580.16000000000008</v>
+        <v>587.41000000000008</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.73389302295999548</v>
+        <v>0.78000381606563685</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1233,11 +1233,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>41.839999999999918</v>
+        <v>34.589999999999918</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43063</v>
+        <v>43064</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -932,12 +932,12 @@
         <v>18</v>
       </c>
       <c r="I7" s="2">
-        <f xml:space="preserve"> 5.72 + 6.56 + 7.25</f>
-        <v>19.53</v>
+        <f xml:space="preserve"> 5.72 + 6.56 + 7.25 + 6.36 + 1.08</f>
+        <v>26.97</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>587.41000000000008</v>
+        <v>594.85000000000014</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="11">
@@ -1205,7 +1205,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>587.41000000000008</v>
+        <v>594.85000000000014</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.78000381606563685</v>
+        <v>0.82732302995611617</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1233,11 +1233,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>34.589999999999918</v>
+        <v>27.149999999999864</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43064</v>
+        <v>43065</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -984,10 +984,13 @@
       <c r="H8" s="11">
         <v>18</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="11" t="str">
+      <c r="I8" s="2">
+        <f xml:space="preserve"> 6.19</f>
+        <v>6.19</v>
+      </c>
+      <c r="J8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>601.04000000000019</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11">
@@ -1205,7 +1208,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>594.85000000000014</v>
+        <v>601.04000000000019</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.82732302995611617</v>
+        <v>0.86669210710424349</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1233,11 +1236,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>27.149999999999864</v>
+        <v>20.959999999999809</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43065</v>
+        <v>43066</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -985,12 +985,12 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <f xml:space="preserve"> 6.19</f>
-        <v>6.19</v>
+        <f xml:space="preserve"> 6.19 + 6.19</f>
+        <v>12.38</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>601.04000000000019</v>
+        <v>607.23000000000013</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11">
@@ -1208,7 +1208,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>601.04000000000019</v>
+        <v>607.23000000000013</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.86669210710424349</v>
+        <v>0.90606118425237003</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1236,11 +1236,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>20.959999999999809</v>
+        <v>14.769999999999868</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43066</v>
+        <v>43067</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -985,12 +985,12 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <f xml:space="preserve"> 6.19 + 6.19</f>
-        <v>12.38</v>
+        <f xml:space="preserve"> 6.19 + 6.19 + 6.76</f>
+        <v>19.14</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>607.23000000000013</v>
+        <v>613.99000000000012</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11">
@@ -1208,7 +1208,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>607.23000000000013</v>
+        <v>613.99000000000012</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.90606118425237003</v>
+        <v>0.94905552375500934</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1236,11 +1236,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>14.769999999999868</v>
+        <v>8.0099999999998772</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43067</v>
+        <v>43068</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -985,12 +985,12 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <f xml:space="preserve"> 6.19 + 6.19 + 6.76</f>
-        <v>19.14</v>
+        <f xml:space="preserve"> 6.19 + 6.19 + 6.76 + 8.47</f>
+        <v>27.61</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>613.99000000000012</v>
+        <v>622.46000000000015</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11">
@@ -1208,7 +1208,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>613.99000000000012</v>
+        <v>622.46000000000015</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>0.94905552375500934</v>
+        <v>1.0029256503211865</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1236,11 +1236,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>8.0099999999998772</v>
+        <v>-0.46000000000015007</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43068</v>
+        <v>43070</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <workbookProtection workbookPassword="CF7C" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Lundi</t>
   </si>
@@ -58,12 +62,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; mi&quot;;[Red]\-#,##0.00&quot; mi&quot;"/>
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
+    <numFmt numFmtId="170" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +104,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,11 +128,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -121,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -164,60 +213,324 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="160">
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="\j"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -231,23 +544,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -349,8 +647,1018 @@
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color auto="1"/>
+        </left>
+        <right style="dashDotDot">
+          <color auto="1"/>
+        </right>
+        <top style="dashDotDot">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="\j"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1EB99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,20 +1668,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="6">
+    <tableColumn id="1" name="Lundi" dataDxfId="157">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="5"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="4"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="3"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="2"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="1"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="0"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="156"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="155"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="154"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="153"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="152"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="147" dataDxfId="148" headerRowBorderDxfId="149" tableBorderDxfId="150">
+  <autoFilter ref="B3:H61"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lundi" dataDxfId="6">
+      <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Mardi" dataDxfId="5">
+      <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Mercredi" dataDxfId="4">
+      <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Jeudi" dataDxfId="3">
+      <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Vendredi" dataDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Samedi" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Dimanche" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -666,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1246,60 +2584,60 @@
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="14" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="29" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="13" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="28" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1318,19 +2656,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="between">
+      <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+      <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,13 +2705,2161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="26">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <f>SUM($J$4:$J$61)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <f xml:space="preserve"> J3 / 622</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <f t="shared" ref="A4:A8" si="0" xml:space="preserve"> IF(OR( 1 = DAY($B4), 1 = DAY($C4), 1 = DAY($D4), 1 = DAY($E4), 1 = DAY($F4),  1 = DAY($G4),  1 = DAY($H4),   ), $H4, "")</f>
+        <v>43072</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ref="B4:G4" si="1" xml:space="preserve"> -1 + C4</f>
+        <v>43066</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="1"/>
+        <v>43067</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>43068</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>43069</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>43070</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
+        <v>43071</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="2" xml:space="preserve"> -1 + $B5</f>
+        <v>43072</v>
+      </c>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" ref="B5:G5" si="3" xml:space="preserve"> -1 + C5</f>
+        <v>43073</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="3"/>
+        <v>43074</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="3"/>
+        <v>43075</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="3"/>
+        <v>43076</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="3"/>
+        <v>43077</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="3"/>
+        <v>43078</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="2"/>
+        <v>43079</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" ref="B6:G6" si="4" xml:space="preserve"> -1 + C6</f>
+        <v>43080</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="4"/>
+        <v>43081</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="4"/>
+        <v>43082</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="4"/>
+        <v>43083</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="4"/>
+        <v>43084</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="4"/>
+        <v>43085</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>43086</v>
+      </c>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" ref="B7:G7" si="5" xml:space="preserve"> -1 + C7</f>
+        <v>43087</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="5"/>
+        <v>43088</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="5"/>
+        <v>43089</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="5"/>
+        <v>43090</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="5"/>
+        <v>43091</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="5"/>
+        <v>43092</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="2"/>
+        <v>43093</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:F8" si="6" xml:space="preserve"> -1 + C8</f>
+        <v>43094</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="6"/>
+        <v>43095</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="6"/>
+        <v>43096</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="6"/>
+        <v>43097</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="6"/>
+        <v>43098</v>
+      </c>
+      <c r="G8" s="18">
+        <f xml:space="preserve"> -1 + H8</f>
+        <v>43099</v>
+      </c>
+      <c r="H8" s="18">
+        <f xml:space="preserve"> -1 + $B9</f>
+        <v>43100</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B9), 1 = DAY($C9), 1 = DAY($D9), 1 = DAY($E9), 1 = DAY($F9),  1 = DAY($G9),  1 = DAY($H9),   ), $H9, "")</f>
+        <v>43107</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43101</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43103</v>
+      </c>
+      <c r="E9" s="17">
+        <v>43104</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43105</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43106</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43107</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f t="shared" ref="A10:A61" si="7" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
+        <v/>
+      </c>
+      <c r="B10" s="17">
+        <f xml:space="preserve"> 1 + $H9</f>
+        <v>43108</v>
+      </c>
+      <c r="C10" s="17">
+        <f xml:space="preserve"> 1 + B10</f>
+        <v>43109</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:H10" si="8" xml:space="preserve"> 1 + C10</f>
+        <v>43110</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="8"/>
+        <v>43111</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="8"/>
+        <v>43112</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="8"/>
+        <v>43113</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="8"/>
+        <v>43114</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" ref="B11:B18" si="9" xml:space="preserve"> 1 + $H10</f>
+        <v>43115</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" ref="C11:H11" si="10" xml:space="preserve"> 1 + B11</f>
+        <v>43116</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="10"/>
+        <v>43117</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="10"/>
+        <v>43118</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="10"/>
+        <v>43120</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="10"/>
+        <v>43121</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="9"/>
+        <v>43122</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" ref="C12:H12" si="11" xml:space="preserve"> 1 + B12</f>
+        <v>43123</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="11"/>
+        <v>43124</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="11"/>
+        <v>43125</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="11"/>
+        <v>43126</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="11"/>
+        <v>43127</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="11"/>
+        <v>43128</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <f t="shared" si="7"/>
+        <v>43135</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="9"/>
+        <v>43129</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:H13" si="12" xml:space="preserve"> 1 + B13</f>
+        <v>43130</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="12"/>
+        <v>43131</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="12"/>
+        <v>43132</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="12"/>
+        <v>43133</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="12"/>
+        <v>43134</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="12"/>
+        <v>43135</v>
+      </c>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="9"/>
+        <v>43136</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:H14" si="13" xml:space="preserve"> 1 + B14</f>
+        <v>43137</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="13"/>
+        <v>43138</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="13"/>
+        <v>43139</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="13"/>
+        <v>43140</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="13"/>
+        <v>43141</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="13"/>
+        <v>43142</v>
+      </c>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="9"/>
+        <v>43143</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" ref="C15:H15" si="14" xml:space="preserve"> 1 + B15</f>
+        <v>43144</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="14"/>
+        <v>43145</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="14"/>
+        <v>43146</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="14"/>
+        <v>43147</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="14"/>
+        <v>43148</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="14"/>
+        <v>43149</v>
+      </c>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="9"/>
+        <v>43150</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:H16" si="15" xml:space="preserve"> 1 + B16</f>
+        <v>43151</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="15"/>
+        <v>43152</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="15"/>
+        <v>43153</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="15"/>
+        <v>43154</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="15"/>
+        <v>43155</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="15"/>
+        <v>43156</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f t="shared" si="7"/>
+        <v>43163</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="9"/>
+        <v>43157</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="16" xml:space="preserve"> 1 + B17</f>
+        <v>43158</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="16"/>
+        <v>43159</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="16"/>
+        <v>43160</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="16"/>
+        <v>43161</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="16"/>
+        <v>43162</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="16"/>
+        <v>43163</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="9"/>
+        <v>43164</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" ref="C18:H18" si="17" xml:space="preserve"> 1 + B18</f>
+        <v>43165</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="17"/>
+        <v>43166</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="17"/>
+        <v>43167</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="17"/>
+        <v>43168</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="17"/>
+        <v>43169</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="17"/>
+        <v>43170</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B19" s="17">
+        <f xml:space="preserve"> 1 + $H18</f>
+        <v>43171</v>
+      </c>
+      <c r="C19" s="17">
+        <f xml:space="preserve"> 1 + B19</f>
+        <v>43172</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" ref="D19:H19" si="18" xml:space="preserve"> 1 + C19</f>
+        <v>43173</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="18"/>
+        <v>43174</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="18"/>
+        <v>43175</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="18"/>
+        <v>43176</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="18"/>
+        <v>43177</v>
+      </c>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" ref="B20:B27" si="19" xml:space="preserve"> 1 + $H19</f>
+        <v>43178</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" ref="C20:H20" si="20" xml:space="preserve"> 1 + B20</f>
+        <v>43179</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="20"/>
+        <v>43180</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="20"/>
+        <v>43181</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="20"/>
+        <v>43182</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="20"/>
+        <v>43183</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="20"/>
+        <v>43184</v>
+      </c>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <f t="shared" si="7"/>
+        <v>43191</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="19"/>
+        <v>43185</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" ref="C21:H21" si="21" xml:space="preserve"> 1 + B21</f>
+        <v>43186</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="21"/>
+        <v>43187</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="21"/>
+        <v>43188</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="21"/>
+        <v>43189</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="21"/>
+        <v>43190</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="21"/>
+        <v>43191</v>
+      </c>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="19"/>
+        <v>43192</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" ref="C22:H22" si="22" xml:space="preserve"> 1 + B22</f>
+        <v>43193</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="22"/>
+        <v>43194</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="22"/>
+        <v>43195</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="22"/>
+        <v>43196</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="22"/>
+        <v>43197</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="22"/>
+        <v>43198</v>
+      </c>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="19"/>
+        <v>43199</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="23" xml:space="preserve"> 1 + B23</f>
+        <v>43200</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="23"/>
+        <v>43201</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="23"/>
+        <v>43202</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="23"/>
+        <v>43203</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="23"/>
+        <v>43204</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="23"/>
+        <v>43205</v>
+      </c>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="19"/>
+        <v>43206</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" ref="C24:H24" si="24" xml:space="preserve"> 1 + B24</f>
+        <v>43207</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="24"/>
+        <v>43208</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="24"/>
+        <v>43209</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="24"/>
+        <v>43210</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="24"/>
+        <v>43211</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="24"/>
+        <v>43212</v>
+      </c>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="19"/>
+        <v>43213</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25:H25" si="25" xml:space="preserve"> 1 + B25</f>
+        <v>43214</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="25"/>
+        <v>43215</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="25"/>
+        <v>43216</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="25"/>
+        <v>43217</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="25"/>
+        <v>43218</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="25"/>
+        <v>43219</v>
+      </c>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f t="shared" si="7"/>
+        <v>43226</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="19"/>
+        <v>43220</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:H26" si="26" xml:space="preserve"> 1 + B26</f>
+        <v>43221</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="26"/>
+        <v>43222</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="26"/>
+        <v>43223</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="26"/>
+        <v>43224</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="26"/>
+        <v>43225</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="26"/>
+        <v>43226</v>
+      </c>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="19"/>
+        <v>43227</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" ref="C27:H27" si="27" xml:space="preserve"> 1 + B27</f>
+        <v>43228</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="27"/>
+        <v>43229</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="27"/>
+        <v>43230</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="27"/>
+        <v>43231</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="27"/>
+        <v>43232</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="27"/>
+        <v>43233</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B28" s="17">
+        <f xml:space="preserve"> 1 + $H27</f>
+        <v>43234</v>
+      </c>
+      <c r="C28" s="17">
+        <f xml:space="preserve"> 1 + B28</f>
+        <v>43235</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" ref="D28:H28" si="28" xml:space="preserve"> 1 + C28</f>
+        <v>43236</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="28"/>
+        <v>43237</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="28"/>
+        <v>43238</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="28"/>
+        <v>43239</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="28"/>
+        <v>43240</v>
+      </c>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:B36" si="29" xml:space="preserve"> 1 + $H28</f>
+        <v>43241</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:H29" si="30" xml:space="preserve"> 1 + B29</f>
+        <v>43242</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="30"/>
+        <v>43243</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="30"/>
+        <v>43244</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="30"/>
+        <v>43245</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="30"/>
+        <v>43246</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="30"/>
+        <v>43247</v>
+      </c>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B30), 1 = DAY($C30), 1 = DAY($D30), 1 = DAY($E30), 1 = DAY($F30),  1 = DAY($G30),  1 = DAY($H30),   ), $H30, "")</f>
+        <v>43254</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="29"/>
+        <v>43248</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" ref="C30:H30" si="31" xml:space="preserve"> 1 + B30</f>
+        <v>43249</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="31"/>
+        <v>43250</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="31"/>
+        <v>43251</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="31"/>
+        <v>43252</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="31"/>
+        <v>43253</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="31"/>
+        <v>43254</v>
+      </c>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="29"/>
+        <v>43255</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" ref="C31:H31" si="32" xml:space="preserve"> 1 + B31</f>
+        <v>43256</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="32"/>
+        <v>43257</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="32"/>
+        <v>43258</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="32"/>
+        <v>43259</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="32"/>
+        <v>43260</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="32"/>
+        <v>43261</v>
+      </c>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="29"/>
+        <v>43262</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" ref="C32:H32" si="33" xml:space="preserve"> 1 + B32</f>
+        <v>43263</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="33"/>
+        <v>43264</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="33"/>
+        <v>43265</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="33"/>
+        <v>43266</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="33"/>
+        <v>43267</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="33"/>
+        <v>43268</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="29"/>
+        <v>43269</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" ref="C33:H33" si="34" xml:space="preserve"> 1 + B33</f>
+        <v>43270</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="34"/>
+        <v>43271</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="34"/>
+        <v>43272</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="34"/>
+        <v>43273</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="34"/>
+        <v>43274</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="34"/>
+        <v>43275</v>
+      </c>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <f t="shared" si="7"/>
+        <v>43282</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="29"/>
+        <v>43276</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" ref="C34:H34" si="35" xml:space="preserve"> 1 + B34</f>
+        <v>43277</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="35"/>
+        <v>43278</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="35"/>
+        <v>43279</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="35"/>
+        <v>43280</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="35"/>
+        <v>43281</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="35"/>
+        <v>43282</v>
+      </c>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="29"/>
+        <v>43283</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" ref="C35:H35" si="36" xml:space="preserve"> 1 + B35</f>
+        <v>43284</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="36"/>
+        <v>43285</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="36"/>
+        <v>43286</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="36"/>
+        <v>43287</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="36"/>
+        <v>43288</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="36"/>
+        <v>43289</v>
+      </c>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="29"/>
+        <v>43290</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" ref="C36:H36" si="37" xml:space="preserve"> 1 + B36</f>
+        <v>43291</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="37"/>
+        <v>43292</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="37"/>
+        <v>43293</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="37"/>
+        <v>43294</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="37"/>
+        <v>43295</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="37"/>
+        <v>43296</v>
+      </c>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B37" s="17">
+        <f xml:space="preserve"> 1 + $H36</f>
+        <v>43297</v>
+      </c>
+      <c r="C37" s="17">
+        <f xml:space="preserve"> 1 + B37</f>
+        <v>43298</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" ref="D37:H37" si="38" xml:space="preserve"> 1 + C37</f>
+        <v>43299</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="38"/>
+        <v>43300</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="38"/>
+        <v>43301</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="38"/>
+        <v>43302</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="38"/>
+        <v>43303</v>
+      </c>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" ref="B38:B39" si="39" xml:space="preserve"> 1 + $H37</f>
+        <v>43304</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" ref="C38:H38" si="40" xml:space="preserve"> 1 + B38</f>
+        <v>43305</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="40"/>
+        <v>43306</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="40"/>
+        <v>43307</v>
+      </c>
+      <c r="F38" s="17">
+        <f t="shared" si="40"/>
+        <v>43308</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="40"/>
+        <v>43309</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="40"/>
+        <v>43310</v>
+      </c>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="7"/>
+        <v>43317</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="39"/>
+        <v>43311</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" ref="C39:H39" si="41" xml:space="preserve"> 1 + B39</f>
+        <v>43312</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="41"/>
+        <v>43313</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="41"/>
+        <v>43314</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="41"/>
+        <v>43315</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="41"/>
+        <v>43316</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="41"/>
+        <v>43317</v>
+      </c>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B40" s="17">
+        <f xml:space="preserve"> 1 + $H39</f>
+        <v>43318</v>
+      </c>
+      <c r="C40" s="17">
+        <f xml:space="preserve"> 1 + B40</f>
+        <v>43319</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" ref="D40:H40" si="42" xml:space="preserve"> 1 + C40</f>
+        <v>43320</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="42"/>
+        <v>43321</v>
+      </c>
+      <c r="F40" s="17">
+        <f t="shared" si="42"/>
+        <v>43322</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="42"/>
+        <v>43323</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="42"/>
+        <v>43324</v>
+      </c>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" ref="B41:B48" si="43" xml:space="preserve"> 1 + $H40</f>
+        <v>43325</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" ref="C41:H41" si="44" xml:space="preserve"> 1 + B41</f>
+        <v>43326</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="44"/>
+        <v>43327</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="44"/>
+        <v>43328</v>
+      </c>
+      <c r="F41" s="17">
+        <f t="shared" si="44"/>
+        <v>43329</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="44"/>
+        <v>43330</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="44"/>
+        <v>43331</v>
+      </c>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="43"/>
+        <v>43332</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" ref="C42:H42" si="45" xml:space="preserve"> 1 + B42</f>
+        <v>43333</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="45"/>
+        <v>43334</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="45"/>
+        <v>43335</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="45"/>
+        <v>43336</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="45"/>
+        <v>43337</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="45"/>
+        <v>43338</v>
+      </c>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <f t="shared" si="7"/>
+        <v>43345</v>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="43"/>
+        <v>43339</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" ref="C43:H43" si="46" xml:space="preserve"> 1 + B43</f>
+        <v>43340</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="46"/>
+        <v>43341</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="46"/>
+        <v>43342</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="46"/>
+        <v>43343</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="46"/>
+        <v>43344</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="46"/>
+        <v>43345</v>
+      </c>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="43"/>
+        <v>43346</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" ref="C44:H44" si="47" xml:space="preserve"> 1 + B44</f>
+        <v>43347</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="47"/>
+        <v>43348</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="47"/>
+        <v>43349</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="47"/>
+        <v>43350</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="47"/>
+        <v>43351</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="47"/>
+        <v>43352</v>
+      </c>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B45), 1 = DAY($C45), 1 = DAY($D45), 1 = DAY($E45), 1 = DAY($F45),  1 = DAY($G45),  1 = DAY($H45),   ), $H45, "")</f>
+        <v/>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="43"/>
+        <v>43353</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" ref="C45:H45" si="48" xml:space="preserve"> 1 + B45</f>
+        <v>43354</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="48"/>
+        <v>43355</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" si="48"/>
+        <v>43356</v>
+      </c>
+      <c r="F45" s="17">
+        <f t="shared" si="48"/>
+        <v>43357</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="48"/>
+        <v>43358</v>
+      </c>
+      <c r="H45" s="17">
+        <f t="shared" si="48"/>
+        <v>43359</v>
+      </c>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="43"/>
+        <v>43360</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" ref="C46:H46" si="49" xml:space="preserve"> 1 + B46</f>
+        <v>43361</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="49"/>
+        <v>43362</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="49"/>
+        <v>43363</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="49"/>
+        <v>43364</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="49"/>
+        <v>43365</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="49"/>
+        <v>43366</v>
+      </c>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="43"/>
+        <v>43367</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" ref="C47:H47" si="50" xml:space="preserve"> 1 + B47</f>
+        <v>43368</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="50"/>
+        <v>43369</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="50"/>
+        <v>43370</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="50"/>
+        <v>43371</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="50"/>
+        <v>43372</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="50"/>
+        <v>43373</v>
+      </c>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <f t="shared" si="7"/>
+        <v>43380</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="43"/>
+        <v>43374</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" ref="C48:H48" si="51" xml:space="preserve"> 1 + B48</f>
+        <v>43375</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="51"/>
+        <v>43376</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="51"/>
+        <v>43377</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="51"/>
+        <v>43378</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="51"/>
+        <v>43379</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="51"/>
+        <v>43380</v>
+      </c>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B49" s="17">
+        <f xml:space="preserve"> 1 + $H48</f>
+        <v>43381</v>
+      </c>
+      <c r="C49" s="17">
+        <f xml:space="preserve"> 1 + B49</f>
+        <v>43382</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" ref="D49:H49" si="52" xml:space="preserve"> 1 + C49</f>
+        <v>43383</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="52"/>
+        <v>43384</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="52"/>
+        <v>43385</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="52"/>
+        <v>43386</v>
+      </c>
+      <c r="H49" s="17">
+        <f t="shared" si="52"/>
+        <v>43387</v>
+      </c>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" ref="B50:B53" si="53" xml:space="preserve"> 1 + $H49</f>
+        <v>43388</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" ref="C50:H50" si="54" xml:space="preserve"> 1 + B50</f>
+        <v>43389</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="54"/>
+        <v>43390</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="54"/>
+        <v>43391</v>
+      </c>
+      <c r="F50" s="17">
+        <f t="shared" si="54"/>
+        <v>43392</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="54"/>
+        <v>43393</v>
+      </c>
+      <c r="H50" s="17">
+        <f t="shared" si="54"/>
+        <v>43394</v>
+      </c>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="53"/>
+        <v>43395</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" ref="C51:H51" si="55" xml:space="preserve"> 1 + B51</f>
+        <v>43396</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="55"/>
+        <v>43397</v>
+      </c>
+      <c r="E51" s="17">
+        <f t="shared" si="55"/>
+        <v>43398</v>
+      </c>
+      <c r="F51" s="17">
+        <f t="shared" si="55"/>
+        <v>43399</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="55"/>
+        <v>43400</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="55"/>
+        <v>43401</v>
+      </c>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <f t="shared" si="7"/>
+        <v>43408</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="53"/>
+        <v>43402</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" ref="C52:H52" si="56" xml:space="preserve"> 1 + B52</f>
+        <v>43403</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="56"/>
+        <v>43404</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="56"/>
+        <v>43405</v>
+      </c>
+      <c r="F52" s="17">
+        <f t="shared" si="56"/>
+        <v>43406</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="56"/>
+        <v>43407</v>
+      </c>
+      <c r="H52" s="17">
+        <f t="shared" si="56"/>
+        <v>43408</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="53"/>
+        <v>43409</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" ref="C53:H53" si="57" xml:space="preserve"> 1 + B53</f>
+        <v>43410</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="57"/>
+        <v>43411</v>
+      </c>
+      <c r="E53" s="17">
+        <f t="shared" si="57"/>
+        <v>43412</v>
+      </c>
+      <c r="F53" s="17">
+        <f t="shared" si="57"/>
+        <v>43413</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="57"/>
+        <v>43414</v>
+      </c>
+      <c r="H53" s="17">
+        <f t="shared" si="57"/>
+        <v>43415</v>
+      </c>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B54" s="17">
+        <f xml:space="preserve"> 1 + $H53</f>
+        <v>43416</v>
+      </c>
+      <c r="C54" s="17">
+        <f xml:space="preserve"> 1 + B54</f>
+        <v>43417</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" ref="D54:H54" si="58" xml:space="preserve"> 1 + C54</f>
+        <v>43418</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" si="58"/>
+        <v>43419</v>
+      </c>
+      <c r="F54" s="17">
+        <f t="shared" si="58"/>
+        <v>43420</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" si="58"/>
+        <v>43421</v>
+      </c>
+      <c r="H54" s="17">
+        <f t="shared" si="58"/>
+        <v>43422</v>
+      </c>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" ref="B55:B57" si="59" xml:space="preserve"> 1 + $H54</f>
+        <v>43423</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" ref="C55:H55" si="60" xml:space="preserve"> 1 + B55</f>
+        <v>43424</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="60"/>
+        <v>43425</v>
+      </c>
+      <c r="E55" s="17">
+        <f t="shared" si="60"/>
+        <v>43426</v>
+      </c>
+      <c r="F55" s="17">
+        <f t="shared" si="60"/>
+        <v>43427</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="60"/>
+        <v>43428</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="60"/>
+        <v>43429</v>
+      </c>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <f t="shared" si="7"/>
+        <v>43436</v>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="59"/>
+        <v>43430</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" ref="C56:H56" si="61" xml:space="preserve"> 1 + B56</f>
+        <v>43431</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="61"/>
+        <v>43432</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="61"/>
+        <v>43433</v>
+      </c>
+      <c r="F56" s="17">
+        <f t="shared" si="61"/>
+        <v>43434</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="61"/>
+        <v>43435</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="61"/>
+        <v>43436</v>
+      </c>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="59"/>
+        <v>43437</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" ref="C57:H57" si="62" xml:space="preserve"> 1 + B57</f>
+        <v>43438</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="62"/>
+        <v>43439</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="62"/>
+        <v>43440</v>
+      </c>
+      <c r="F57" s="17">
+        <f t="shared" si="62"/>
+        <v>43441</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="62"/>
+        <v>43442</v>
+      </c>
+      <c r="H57" s="17">
+        <f t="shared" si="62"/>
+        <v>43443</v>
+      </c>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B58" s="17">
+        <f xml:space="preserve"> 1 + $H57</f>
+        <v>43444</v>
+      </c>
+      <c r="C58" s="17">
+        <f xml:space="preserve"> 1 + B58</f>
+        <v>43445</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" ref="D58:H58" si="63" xml:space="preserve"> 1 + C58</f>
+        <v>43446</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" si="63"/>
+        <v>43447</v>
+      </c>
+      <c r="F58" s="17">
+        <f t="shared" si="63"/>
+        <v>43448</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="63"/>
+        <v>43449</v>
+      </c>
+      <c r="H58" s="17">
+        <f t="shared" si="63"/>
+        <v>43450</v>
+      </c>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B59" s="17">
+        <f t="shared" ref="B59:B60" si="64" xml:space="preserve"> 1 + $H58</f>
+        <v>43451</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" ref="C59:H59" si="65" xml:space="preserve"> 1 + B59</f>
+        <v>43452</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="65"/>
+        <v>43453</v>
+      </c>
+      <c r="E59" s="17">
+        <f t="shared" si="65"/>
+        <v>43454</v>
+      </c>
+      <c r="F59" s="17">
+        <f t="shared" si="65"/>
+        <v>43455</v>
+      </c>
+      <c r="G59" s="17">
+        <f t="shared" si="65"/>
+        <v>43456</v>
+      </c>
+      <c r="H59" s="17">
+        <f t="shared" si="65"/>
+        <v>43457</v>
+      </c>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B60" s="17">
+        <f t="shared" si="64"/>
+        <v>43458</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" ref="C60:H61" si="66" xml:space="preserve"> 1 + B60</f>
+        <v>43459</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="66"/>
+        <v>43460</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="66"/>
+        <v>43461</v>
+      </c>
+      <c r="F60" s="17">
+        <f t="shared" si="66"/>
+        <v>43462</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" si="66"/>
+        <v>43463</v>
+      </c>
+      <c r="H60" s="17">
+        <f t="shared" si="66"/>
+        <v>43464</v>
+      </c>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <f t="shared" si="7"/>
+        <v>43471</v>
+      </c>
+      <c r="B61" s="19">
+        <f xml:space="preserve"> 1 + $H60</f>
+        <v>43465</v>
+      </c>
+      <c r="C61" s="19">
+        <f xml:space="preserve"> 1 + B61</f>
+        <v>43466</v>
+      </c>
+      <c r="D61" s="19">
+        <f t="shared" si="66"/>
+        <v>43467</v>
+      </c>
+      <c r="E61" s="19">
+        <f t="shared" si="66"/>
+        <v>43468</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" si="66"/>
+        <v>43469</v>
+      </c>
+      <c r="G61" s="19">
+        <f t="shared" si="66"/>
+        <v>43470</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" si="66"/>
+        <v>43471</v>
+      </c>
+      <c r="J61" s="24"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:H61">
+    <cfRule type="timePeriod" dxfId="23" priority="18" timePeriod="today">
+      <formula>FLOOR(B4,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="22" priority="19" timePeriod="thisMonth">
+      <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J61">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
+      <formula>24.8800001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+      <formula>18.66000001</formula>
+      <formula>24.88</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="between">
+      <formula>12.4400001</formula>
+      <formula>18.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
+      <formula>6.220001</formula>
+      <formula>12.44</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>0</formula>
+      <formula>6.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+      <formula>"$k$3 &gt;= 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>$K$3 &lt; 0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F4:H4 B5:H9 B4:E4" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; mi&quot;;[Red]\-#,##0.00&quot; mi&quot;"/>
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
-    <numFmt numFmtId="170" formatCode="mmmm"/>
+    <numFmt numFmtId="167" formatCode="mmmm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -213,7 +213,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,119 +245,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -648,853 +536,15 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="dotted">
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -1502,57 +552,15 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="dotted">
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -1560,28 +568,15 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDotDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDotDot">
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="dashDotDot">
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -1589,10 +584,68 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1602,6 +655,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
@@ -1609,6 +665,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
@@ -1644,7 +703,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="\j"/>
+      <numFmt numFmtId="168" formatCode="\j"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1668,46 +727,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="157">
+    <tableColumn id="1" name="Lundi" dataDxfId="50">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="156"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="155"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="154"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="153"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="152"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="151"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="49"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="48"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="47"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="46"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="45"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="147" dataDxfId="148" headerRowBorderDxfId="149" tableBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="6">
+    <tableColumn id="1" name="Lundi" dataDxfId="39">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="5">
+    <tableColumn id="2" name="Mardi" dataDxfId="38">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="4">
+    <tableColumn id="3" name="Mercredi" dataDxfId="37">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="3">
+    <tableColumn id="4" name="Jeudi" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="2">
+    <tableColumn id="5" name="Vendredi" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="1">
+    <tableColumn id="6" name="Samedi" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="0">
+    <tableColumn id="7" name="Dimanche" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2323,12 +1382,12 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <f xml:space="preserve"> 6.19 + 6.19 + 6.76 + 8.47</f>
-        <v>27.61</v>
+        <f xml:space="preserve"> 6.19 + 6.19 + 6.76 + 8.47 + 6.68</f>
+        <v>34.29</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>622.46000000000015</v>
+        <v>629.1400000000001</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11">
@@ -2546,7 +1605,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>622.46000000000015</v>
+        <v>629.1400000000001</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2559,7 +1618,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.0029256503211865</v>
+        <v>1.045411181072315</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -2574,70 +1633,70 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-0.46000000000015007</v>
+        <v>-7.1400000000001</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43072</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="29" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="22" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="28" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="21" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2656,18 +1715,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2705,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M61"/>
+  <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,17 +1781,19 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26">
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="16" t="s">
         <v>0</v>
@@ -2759,12 +1820,13 @@
         <f>SUM($J$4:$J$61)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25"/>
+      <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f t="shared" ref="A4:A8" si="0" xml:space="preserve"> IF(OR( 1 = DAY($B4), 1 = DAY($C4), 1 = DAY($D4), 1 = DAY($E4), 1 = DAY($F4),  1 = DAY($G4),  1 = DAY($H4),   ), $H4, "")</f>
         <v>43072</v>
@@ -2798,8 +1860,9 @@
         <v>43072</v>
       </c>
       <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2833,8 +1896,9 @@
         <v>43079</v>
       </c>
       <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2868,8 +1932,9 @@
         <v>43086</v>
       </c>
       <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2903,8 +1968,9 @@
         <v>43093</v>
       </c>
       <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2938,8 +2004,12 @@
         <v>43100</v>
       </c>
       <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="24">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f xml:space="preserve"> IF(OR( 1 = DAY($B9), 1 = DAY($C9), 1 = DAY($D9), 1 = DAY($E9), 1 = DAY($F9),  1 = DAY($G9),  1 = DAY($H9),   ), $H9, "")</f>
         <v>43107</v>
@@ -2966,9 +2036,10 @@
         <v>43107</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="24"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
         <f t="shared" ref="A10:A61" si="7" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
         <v/>
@@ -3002,10 +2073,11 @@
         <v>43114</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3039,8 +2111,9 @@
         <v>43121</v>
       </c>
       <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3074,8 +2147,9 @@
         <v>43128</v>
       </c>
       <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" si="7"/>
         <v>43135</v>
@@ -3109,8 +2183,12 @@
         <v>43135</v>
       </c>
       <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="24">
+        <f>SUM(J9:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3144,8 +2222,9 @@
         <v>43142</v>
       </c>
       <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3179,8 +2258,9 @@
         <v>43149</v>
       </c>
       <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3214,8 +2294,9 @@
         <v>43156</v>
       </c>
       <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" si="7"/>
         <v>43163</v>
@@ -3249,8 +2330,12 @@
         <v>43163</v>
       </c>
       <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="24">
+        <f>SUM(J14:J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3284,8 +2369,9 @@
         <v>43170</v>
       </c>
       <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3319,8 +2405,9 @@
         <v>43177</v>
       </c>
       <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3354,8 +2441,9 @@
         <v>43184</v>
       </c>
       <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f t="shared" si="7"/>
         <v>43191</v>
@@ -3389,8 +2477,12 @@
         <v>43191</v>
       </c>
       <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="24">
+        <f>SUM(J18:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3424,8 +2516,9 @@
         <v>43198</v>
       </c>
       <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3459,8 +2552,9 @@
         <v>43205</v>
       </c>
       <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3494,8 +2588,9 @@
         <v>43212</v>
       </c>
       <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3529,8 +2624,9 @@
         <v>43219</v>
       </c>
       <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f t="shared" si="7"/>
         <v>43226</v>
@@ -3564,8 +2660,12 @@
         <v>43226</v>
       </c>
       <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="24">
+        <f>SUM(J22:J26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3599,8 +2699,9 @@
         <v>43233</v>
       </c>
       <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3634,8 +2735,9 @@
         <v>43240</v>
       </c>
       <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3669,8 +2771,9 @@
         <v>43247</v>
       </c>
       <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f xml:space="preserve"> IF(OR( 1 = DAY($B30), 1 = DAY($C30), 1 = DAY($D30), 1 = DAY($E30), 1 = DAY($F30),  1 = DAY($G30),  1 = DAY($H30),   ), $H30, "")</f>
         <v>43254</v>
@@ -3704,8 +2807,9 @@
         <v>43254</v>
       </c>
       <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3739,8 +2843,9 @@
         <v>43261</v>
       </c>
       <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3774,8 +2879,9 @@
         <v>43268</v>
       </c>
       <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3809,8 +2915,9 @@
         <v>43275</v>
       </c>
       <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f t="shared" si="7"/>
         <v>43282</v>
@@ -3844,8 +2951,12 @@
         <v>43282</v>
       </c>
       <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="24">
+        <f>SUM(J27:J34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3879,8 +2990,9 @@
         <v>43289</v>
       </c>
       <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3914,8 +3026,9 @@
         <v>43296</v>
       </c>
       <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3949,8 +3062,9 @@
         <v>43303</v>
       </c>
       <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3984,8 +3098,9 @@
         <v>43310</v>
       </c>
       <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f t="shared" si="7"/>
         <v>43317</v>
@@ -4019,8 +3134,12 @@
         <v>43317</v>
       </c>
       <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="24">
+        <f>SUM(J35:J39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4054,8 +3173,9 @@
         <v>43324</v>
       </c>
       <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4089,8 +3209,9 @@
         <v>43331</v>
       </c>
       <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4124,8 +3245,9 @@
         <v>43338</v>
       </c>
       <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f t="shared" si="7"/>
         <v>43345</v>
@@ -4159,8 +3281,12 @@
         <v>43345</v>
       </c>
       <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="24">
+        <f>SUM(J40:J43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4194,8 +3320,9 @@
         <v>43352</v>
       </c>
       <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="str">
         <f xml:space="preserve"> IF(OR( 1 = DAY($B45), 1 = DAY($C45), 1 = DAY($D45), 1 = DAY($E45), 1 = DAY($F45),  1 = DAY($G45),  1 = DAY($H45),   ), $H45, "")</f>
         <v/>
@@ -4229,8 +3356,9 @@
         <v>43359</v>
       </c>
       <c r="J45" s="24"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4264,8 +3392,9 @@
         <v>43366</v>
       </c>
       <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4299,8 +3428,12 @@
         <v>43373</v>
       </c>
       <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="24">
+        <f>SUM(J44:J47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <f t="shared" si="7"/>
         <v>43380</v>
@@ -4334,8 +3467,9 @@
         <v>43380</v>
       </c>
       <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4369,8 +3503,9 @@
         <v>43387</v>
       </c>
       <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4404,8 +3539,9 @@
         <v>43394</v>
       </c>
       <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4439,8 +3575,9 @@
         <v>43401</v>
       </c>
       <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <f t="shared" si="7"/>
         <v>43408</v>
@@ -4474,8 +3611,12 @@
         <v>43408</v>
       </c>
       <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="24">
+        <f>SUM(J48:J52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4509,8 +3650,9 @@
         <v>43415</v>
       </c>
       <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4544,8 +3686,9 @@
         <v>43422</v>
       </c>
       <c r="J54" s="24"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4579,8 +3722,9 @@
         <v>43429</v>
       </c>
       <c r="J55" s="24"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <f t="shared" si="7"/>
         <v>43436</v>
@@ -4614,8 +3758,12 @@
         <v>43436</v>
       </c>
       <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="24">
+        <f>SUM(J53:J56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4649,8 +3797,9 @@
         <v>43443</v>
       </c>
       <c r="J57" s="24"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4684,8 +3833,9 @@
         <v>43450</v>
       </c>
       <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4719,8 +3869,9 @@
         <v>43457</v>
       </c>
       <c r="J59" s="24"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4754,8 +3905,9 @@
         <v>43464</v>
       </c>
       <c r="J60" s="24"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <f t="shared" si="7"/>
         <v>43471</v>
@@ -4789,67 +3941,71 @@
         <v>43471</v>
       </c>
       <c r="J61" s="24"/>
+      <c r="K61" s="24">
+        <f>SUM(J57:J61)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="23" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="16" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="15" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J61">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="J4:K61">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>$K$3 &lt; 0.1</formula>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -247,6 +247,138 @@
   </cellStyles>
   <dxfs count="53">
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
@@ -401,6 +533,50 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="\j"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -535,182 +711,6 @@
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="\j"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -727,46 +727,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="50">
+    <tableColumn id="1" name="Lundi" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="49"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="48"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="47"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="46"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="45"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="44"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="33"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="32"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="31"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="30"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="29"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="39">
+    <tableColumn id="1" name="Lundi" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="38">
+    <tableColumn id="2" name="Mardi" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="37">
+    <tableColumn id="3" name="Mercredi" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="36">
+    <tableColumn id="4" name="Jeudi" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="35">
+    <tableColumn id="5" name="Vendredi" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="34">
+    <tableColumn id="6" name="Samedi" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="33">
+    <tableColumn id="7" name="Dimanche" dataDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1431,10 +1431,13 @@
       <c r="H9" s="11">
         <v>18</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="11" t="str">
+      <c r="I9" s="2">
+        <f xml:space="preserve"> 7.13</f>
+        <v>7.13</v>
+      </c>
+      <c r="J9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>636.2700000000001</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="11">
@@ -1605,7 +1608,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>629.1400000000001</v>
+        <v>636.2700000000001</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1618,7 +1621,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.045411181072315</v>
+        <v>1.0907587610506906</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1633,70 +1636,70 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-7.1400000000001</v>
+        <v>-14.270000000000095</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43072</v>
+        <v>43074</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="22" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="42" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="21" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="41" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1715,18 +1718,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3948,63 +3951,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="16" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="27" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="26" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1432,12 +1432,12 @@
         <v>18</v>
       </c>
       <c r="I9" s="2">
-        <f xml:space="preserve"> 7.13</f>
-        <v>7.13</v>
+        <f xml:space="preserve"> 7.13 + 5.95</f>
+        <v>13.08</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>636.2700000000001</v>
+        <v>642.22000000000014</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="11">
@@ -1608,7 +1608,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>636.2700000000001</v>
+        <v>642.22000000000014</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.0907587610506906</v>
+        <v>1.1286014119442864</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1636,11 +1636,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-14.270000000000095</v>
+        <v>-20.220000000000141</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43074</v>
+        <v>43077</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1432,12 +1432,12 @@
         <v>18</v>
       </c>
       <c r="I9" s="2">
-        <f xml:space="preserve"> 7.13 + 5.95</f>
-        <v>13.08</v>
+        <f xml:space="preserve"> 7.13 + 5.95 + 7.19 + 1.07</f>
+        <v>21.34</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>642.22000000000014</v>
+        <v>650.48000000000013</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="11">
@@ -1608,7 +1608,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>642.22000000000014</v>
+        <v>650.48000000000013</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.1286014119442864</v>
+        <v>1.1811359155377481</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1636,11 +1636,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-20.220000000000141</v>
+        <v>-28.480000000000132</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43077</v>
+        <v>43079</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1481,10 +1481,13 @@
       <c r="H10" s="11">
         <v>18</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="11" t="str">
+      <c r="I10" s="2">
+        <f xml:space="preserve"> 4.67</f>
+        <v>4.67</v>
+      </c>
+      <c r="J10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>655.15000000000009</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="11">
@@ -1608,7 +1611,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>650.48000000000013</v>
+        <v>655.15000000000009</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1621,7 +1624,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.1811359155377481</v>
+        <v>1.2108376264071747</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1636,11 +1639,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-28.480000000000132</v>
+        <v>-33.150000000000091</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43079</v>
+        <v>43081</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1531,10 +1531,13 @@
       <c r="H11" s="11">
         <v>18</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="11" t="str">
+      <c r="I11" s="2">
+        <f xml:space="preserve"> 6.26</f>
+        <v>6.26</v>
+      </c>
+      <c r="J11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>661.41000000000008</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="11">
@@ -1611,7 +1614,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>655.15000000000009</v>
+        <v>661.41000000000008</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.2108376264071747</v>
+        <v>1.2506519112128733</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1639,11 +1642,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-33.150000000000091</v>
+        <v>-39.410000000000082</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43081</v>
+        <v>43087</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1581,10 +1581,13 @@
       <c r="H12" s="11">
         <v>18</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="11" t="str">
+      <c r="I12" s="2">
+        <f xml:space="preserve"> 6.12</f>
+        <v>6.12</v>
+      </c>
+      <c r="J12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>667.53000000000009</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="11">
@@ -1614,7 +1617,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f ca="1">MAX(J3:J12)</f>
-        <v>661.41000000000008</v>
+        <v>667.53000000000009</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1627,7 +1630,7 @@
       </c>
       <c r="I16" s="14">
         <f ca="1">1 - $H$18/$H$17</f>
-        <v>1.2506519112128733</v>
+        <v>1.2895757807034287</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
@@ -1642,11 +1645,11 @@
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12">
         <f ca="1">622-$J$13</f>
-        <v>-39.410000000000082</v>
+        <v>-45.530000000000086</v>
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43087</v>
+        <v>43095</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="CF7C" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43095</v>
+        <v>43101</v>
       </c>
     </row>
   </sheetData>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,12 +1830,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>0</v>
+        <v>7.13</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0</v>
+        <v>1.1463022508038585E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,10 @@
       <c r="H9" s="17">
         <v>43107</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24">
+        <f xml:space="preserve"> 7.13</f>
+        <v>7.13</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
     </row>
@@ -2197,7 +2200,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>0</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43101</v>
+        <v>43108</v>
       </c>
     </row>
   </sheetData>
@@ -1830,12 +1830,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>7.13</v>
+        <v>14.33</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.1463022508038585E-2</v>
+        <v>2.3038585209003214E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2048,8 +2048,8 @@
         <v>43107</v>
       </c>
       <c r="J9" s="24">
-        <f xml:space="preserve"> 7.13</f>
-        <v>7.13</v>
+        <f xml:space="preserve"> 7.13 + 7.2</f>
+        <v>14.33</v>
       </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
@@ -2200,7 +2200,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>7.13</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -68,7 +68,7 @@
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
     <numFmt numFmtId="167" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,15 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -240,6 +249,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1649,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43108</v>
+        <v>43109</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,12 +1806,12 @@
     <col min="11" max="11" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="26">
+      <c r="L2" s="28">
         <v>622</v>
       </c>
     </row>
@@ -1830,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>14.33</v>
+        <v>21.47</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>2.3038585209003214E-2</v>
+        <v>3.4517684887459807E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2087,7 +2097,10 @@
         <f t="shared" si="8"/>
         <v>43114</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <f xml:space="preserve"> 7.14</f>
+        <v>7.14</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
@@ -2200,7 +2213,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>14.33</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>21.47</v>
+        <v>28.619999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>3.4517684887459807E-2</v>
+        <v>4.6012861736334398E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2098,8 +2098,8 @@
         <v>43114</v>
       </c>
       <c r="J10" s="24">
-        <f xml:space="preserve"> 7.14</f>
-        <v>7.14</v>
+        <f xml:space="preserve"> 7.14 + 7.15</f>
+        <v>14.29</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
@@ -2213,7 +2213,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>21.47</v>
+        <v>28.619999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43110</v>
+        <v>43114</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>28.619999999999997</v>
+        <v>50.29</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>4.6012861736334398E-2</v>
+        <v>8.0852090032154336E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2098,8 +2098,8 @@
         <v>43114</v>
       </c>
       <c r="J10" s="24">
-        <f xml:space="preserve"> 7.14 + 7.15</f>
-        <v>14.29</v>
+        <f xml:space="preserve"> 7.14 + 7.15 + 7.18 + 7.37 + 7.12</f>
+        <v>35.96</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
@@ -2213,7 +2213,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>28.619999999999997</v>
+        <v>50.29</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43114</v>
+        <v>43127</v>
       </c>
     </row>
   </sheetData>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>50.29</v>
+        <v>57.57</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>8.0852090032154336E-2</v>
+        <v>9.2556270096463028E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,10 @@
         <f t="shared" si="11"/>
         <v>43128</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24">
+        <f xml:space="preserve"> 7.28</f>
+        <v>7.28</v>
+      </c>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2213,7 +2216,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>50.29</v>
+        <v>57.57</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>57.57</v>
+        <v>64.7</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>9.2556270096463028E-2</v>
+        <v>0.10401929260450161</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2175,8 +2175,8 @@
         <v>43128</v>
       </c>
       <c r="J12" s="24">
-        <f xml:space="preserve"> 7.28</f>
-        <v>7.28</v>
+        <f xml:space="preserve"> 7.28 + 7.13</f>
+        <v>14.41</v>
       </c>
       <c r="K12" s="24"/>
     </row>
@@ -2216,7 +2216,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>57.57</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43128</v>
+        <v>43134</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>64.7</v>
+        <v>71.84</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.10401929260450161</v>
+        <v>0.1154983922829582</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2213,10 +2213,13 @@
         <f t="shared" si="12"/>
         <v>43135</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24">
+        <f xml:space="preserve"> 7.14</f>
+        <v>7.14</v>
+      </c>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>64.7</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>71.84</v>
+        <v>78.92</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.1154983922829582</v>
+        <v>0.12688102893890676</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2214,12 +2214,12 @@
         <v>43135</v>
       </c>
       <c r="J13" s="24">
-        <f xml:space="preserve"> 7.14</f>
-        <v>7.14</v>
+        <f xml:space="preserve"> 7.14 + 7.08</f>
+        <v>14.219999999999999</v>
       </c>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>71.84</v>
+        <v>78.92</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43135</v>
+        <v>43141</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>78.92</v>
+        <v>87.18</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.12688102893890676</v>
+        <v>0.14016077170418006</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,10 @@
         <f t="shared" si="13"/>
         <v>43142</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24">
+        <f xml:space="preserve"> 8.26</f>
+        <v>8.26</v>
+      </c>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2366,7 +2369,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>0</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43141</v>
+        <v>43142</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>87.18</v>
+        <v>95.35</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.14016077170418006</v>
+        <v>0.1532958199356913</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2256,8 +2256,8 @@
         <v>43142</v>
       </c>
       <c r="J14" s="24">
-        <f xml:space="preserve"> 8.26</f>
-        <v>8.26</v>
+        <f xml:space="preserve"> 8.26 + 8.17</f>
+        <v>16.43</v>
       </c>
       <c r="K14" s="24"/>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>8.26</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43142</v>
+        <v>43148</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>95.35</v>
+        <v>104.17999999999999</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.1532958199356913</v>
+        <v>0.16749196141479097</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,10 @@
         <f t="shared" si="14"/>
         <v>43149</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24">
+        <f xml:space="preserve"> 0.13 + 8.7</f>
+        <v>8.83</v>
+      </c>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2369,7 +2372,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>16.43</v>
+        <v>25.259999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43148</v>
+        <v>43155</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>104.17999999999999</v>
+        <v>121.26999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.16749196141479097</v>
+        <v>0.19496784565916395</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2295,8 +2295,8 @@
         <v>43149</v>
       </c>
       <c r="J15" s="24">
-        <f xml:space="preserve"> 0.13 + 8.7</f>
-        <v>8.83</v>
+        <f xml:space="preserve"> 0.13 + 8.7 + 8.27</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="K15" s="24"/>
     </row>
@@ -2333,7 +2333,10 @@
         <f t="shared" si="15"/>
         <v>43156</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <f xml:space="preserve"> 8.82</f>
+        <v>8.82</v>
+      </c>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2372,7 +2375,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>25.259999999999998</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43155</v>
+        <v>43162</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>121.26999999999998</v>
+        <v>138.61999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.19496784565916395</v>
+        <v>0.22286173633440512</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2334,8 +2334,8 @@
         <v>43156</v>
       </c>
       <c r="J16" s="24">
-        <f xml:space="preserve"> 8.82</f>
-        <v>8.82</v>
+        <f xml:space="preserve"> 8.82 + 8.16</f>
+        <v>16.98</v>
       </c>
       <c r="K16" s="24"/>
     </row>
@@ -2372,10 +2372,13 @@
         <f t="shared" si="16"/>
         <v>43163</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="24">
+        <f xml:space="preserve"> 9.19</f>
+        <v>9.19</v>
+      </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>42.35</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>138.61999999999998</v>
+        <v>148.02999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.22286173633440512</v>
+        <v>0.23799035369774915</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2373,12 +2373,12 @@
         <v>43163</v>
       </c>
       <c r="J17" s="24">
-        <f xml:space="preserve"> 9.19</f>
-        <v>9.19</v>
+        <f xml:space="preserve"> 9.19 + 9.41</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>59.7</v>
+        <v>69.110000000000014</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43163</v>
+        <v>43170</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>148.02999999999997</v>
+        <v>157.49999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.23799035369774915</v>
+        <v>0.25321543408360125</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,10 @@
         <f t="shared" si="17"/>
         <v>43170</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <f xml:space="preserve"> 9.47</f>
+        <v>9.4700000000000006</v>
+      </c>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,7 +2528,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>0</v>
+        <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43170</v>
+        <v>43177</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>157.49999999999997</v>
+        <v>166.84999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.25321543408360125</v>
+        <v>0.26824758842443724</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,10 @@
         <f t="shared" si="18"/>
         <v>43177</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <f xml:space="preserve"> 9.35</f>
+        <v>9.35</v>
+      </c>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,7 +2531,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>9.4700000000000006</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43177</v>
+        <v>43183</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>166.84999999999997</v>
+        <v>177.06999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.26824758842443724</v>
+        <v>0.28467845659163982</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,10 @@
         <f t="shared" si="20"/>
         <v>43184</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24">
+        <f xml:space="preserve"> 10.22</f>
+        <v>10.220000000000001</v>
+      </c>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,7 +2534,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>18.82</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43183</v>
+        <v>43184</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>177.06999999999996</v>
+        <v>181.97999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.28467845659163982</v>
+        <v>0.29257234726688097</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2493,8 +2493,8 @@
         <v>43184</v>
       </c>
       <c r="J20" s="24">
-        <f xml:space="preserve"> 10.22</f>
-        <v>10.220000000000001</v>
+        <f xml:space="preserve"> 10.22 + 4.91</f>
+        <v>15.13</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -2534,7 +2534,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>29.04</v>
+        <v>33.950000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43184</v>
+        <v>43190</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>181.97999999999996</v>
+        <v>193.87999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.29257234726688097</v>
+        <v>0.31170418006430861</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2531,10 +2531,13 @@
         <f t="shared" si="21"/>
         <v>43191</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24">
+        <f xml:space="preserve"> 3.23 + 8.17 + 0.5</f>
+        <v>11.9</v>
+      </c>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>33.950000000000003</v>
+        <v>45.85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43190</v>
+        <v>43191</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>193.87999999999997</v>
+        <v>202.07999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.31170418006430861</v>
+        <v>0.3248874598070739</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2532,12 +2532,12 @@
         <v>43191</v>
       </c>
       <c r="J21" s="24">
-        <f xml:space="preserve"> 3.23 + 8.17 + 0.5</f>
-        <v>11.9</v>
+        <f xml:space="preserve"> 3.23 + 8.17 + 0.5 + 8.2</f>
+        <v>20.100000000000001</v>
       </c>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>45.85</v>
+        <v>54.050000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>202.07999999999996</v>
+        <v>209.27999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.3248874598070739</v>
+        <v>0.3364630225080385</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,10 @@
         <f t="shared" si="22"/>
         <v>43198</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24">
+        <f xml:space="preserve"> 7.2</f>
+        <v>7.2</v>
+      </c>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2720,7 +2723,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43192</v>
+        <v>43204</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>209.27999999999994</v>
+        <v>217.50999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.3364630225080385</v>
+        <v>0.34969453376205778</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,10 @@
         <f t="shared" si="23"/>
         <v>43205</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="24">
+        <f xml:space="preserve"> 8.23</f>
+        <v>8.23</v>
+      </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2723,7 +2726,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>7.2</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43204</v>
+        <v>43205</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>217.50999999999993</v>
+        <v>227.91999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.34969453376205778</v>
+        <v>0.36643086816720249</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2613,8 +2613,8 @@
         <v>43205</v>
       </c>
       <c r="J23" s="24">
-        <f xml:space="preserve"> 8.23</f>
-        <v>8.23</v>
+        <f xml:space="preserve"> 8.23 +1.11 +8.16 + 1.14</f>
+        <v>18.64</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>15.43</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43205</v>
+        <v>43211</v>
       </c>
     </row>
   </sheetData>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>227.91999999999996</v>
+        <v>238.20999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.36643086816720249</v>
+        <v>0.38297427652733113</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,10 @@
         <f t="shared" si="24"/>
         <v>43212</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="24">
+        <f xml:space="preserve"> 3.12 + 7.17</f>
+        <v>10.29</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2726,7 +2729,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>25.84</v>
+        <v>36.129999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43211</v>
+        <v>43212</v>
       </c>
     </row>
   </sheetData>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>238.20999999999995</v>
+        <v>242.13999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.38297427652733113</v>
+        <v>0.38929260450160763</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2652,8 +2652,8 @@
         <v>43212</v>
       </c>
       <c r="J24" s="24">
-        <f xml:space="preserve"> 3.12 + 7.17</f>
-        <v>10.29</v>
+        <f xml:space="preserve"> 3.12 + 7.17 + 3.93</f>
+        <v>14.219999999999999</v>
       </c>
       <c r="K24" s="24"/>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>36.129999999999995</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43212</v>
+        <v>43214</v>
       </c>
     </row>
   </sheetData>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>242.13999999999996</v>
+        <v>247.34999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.38929260450160763</v>
+        <v>0.397668810289389</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,10 @@
         <f t="shared" si="25"/>
         <v>43219</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24">
+        <f xml:space="preserve"> 5.21</f>
+        <v>5.21</v>
+      </c>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2729,7 +2732,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>40.06</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43219</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>247.34999999999997</v>
+        <v>254.49999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.397668810289389</v>
+        <v>0.40916398713826357</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2691,8 +2691,8 @@
         <v>43219</v>
       </c>
       <c r="J25" s="24">
-        <f xml:space="preserve"> 5.21</f>
-        <v>5.21</v>
+        <f xml:space="preserve"> 5.21 + 7.15</f>
+        <v>12.36</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -2732,7 +2732,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>45.27</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1840,12 +1840,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>254.49999999999994</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.40916398713826357</v>
+        <v>0.42056270096463017</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2691,8 +2691,8 @@
         <v>43219</v>
       </c>
       <c r="J25" s="24">
-        <f xml:space="preserve"> 5.21 + 7.15</f>
-        <v>12.36</v>
+        <f xml:space="preserve"> 5.21 + 7.15 + 7.09</f>
+        <v>19.45</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -2732,7 +2732,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>52.42</v>
+        <v>59.510000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43219</v>
+        <v>43221</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>261.58999999999997</v>
+        <v>268.82</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.42056270096463017</v>
+        <v>0.43218649517684887</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2729,10 +2732,13 @@
         <f t="shared" si="26"/>
         <v>43226</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="24">
+        <f xml:space="preserve"> 7.23</f>
+        <v>7.23</v>
+      </c>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>59.510000000000005</v>
+        <v>66.740000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43221</v>
+        <v>43225</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>268.82</v>
+        <v>281.88</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.43218649517684887</v>
+        <v>0.45318327974276529</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2733,12 +2733,12 @@
         <v>43226</v>
       </c>
       <c r="J26" s="24">
-        <f xml:space="preserve"> 7.23</f>
-        <v>7.23</v>
+        <f xml:space="preserve"> 7.23 + 5.96 + 7.1</f>
+        <v>20.29</v>
       </c>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>66.740000000000009</v>
+        <v>79.800000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43225</v>
+        <v>43226</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>281.88</v>
+        <v>288.92999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.45318327974276529</v>
+        <v>0.4645176848874597</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2733,12 +2733,12 @@
         <v>43226</v>
       </c>
       <c r="J26" s="24">
-        <f xml:space="preserve"> 7.23 + 5.96 + 7.1</f>
-        <v>20.29</v>
+        <f xml:space="preserve"> 7.23 + 5.96 + 7.1 + 7.05</f>
+        <v>27.34</v>
       </c>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>79.800000000000011</v>
+        <v>86.850000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43226</v>
+        <v>43228</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>288.92999999999995</v>
+        <v>295.42999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.4645176848874597</v>
+        <v>0.47496784565916389</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,10 @@
         <f t="shared" si="27"/>
         <v>43233</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24">
+        <f xml:space="preserve"> 6.5</f>
+        <v>6.5</v>
+      </c>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2883,7 +2886,10 @@
         <v>43254</v>
       </c>
       <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="24">
+        <f>SUM(J27:J30)</f>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
@@ -3028,7 +3034,7 @@
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24">
-        <f>SUM(J27:J34)</f>
+        <f>SUM(J31:J34)</f>
         <v>0</v>
       </c>
     </row>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>295.42999999999995</v>
+        <v>302.54999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.47496784565916389</v>
+        <v>0.48641479099678447</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2775,8 +2775,8 @@
         <v>43233</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 6.5</f>
-        <v>6.5</v>
+        <f xml:space="preserve"> 6.5 + 7.12</f>
+        <v>13.620000000000001</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2888,7 +2888,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>6.5</v>
+        <v>13.620000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43229</v>
+        <v>43231</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>302.54999999999995</v>
+        <v>309.62999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.48641479099678447</v>
+        <v>0.49779742765273299</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2775,8 +2775,8 @@
         <v>43233</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 6.5 + 7.12</f>
-        <v>13.620000000000001</v>
+        <f xml:space="preserve"> 6.5 + 7.12 + 7.08</f>
+        <v>20.700000000000003</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2888,7 +2888,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>13.620000000000001</v>
+        <v>20.700000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43231</v>
+        <v>43232</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>309.62999999999994</v>
+        <v>316.69999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.49779742765273299</v>
+        <v>0.50916398713826361</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2775,8 +2775,8 @@
         <v>43233</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 6.5 + 7.12 + 7.08</f>
-        <v>20.700000000000003</v>
+        <f xml:space="preserve"> 6.5 + 7.12 + 7.08 + 7.07</f>
+        <v>27.770000000000003</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2888,7 +2888,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>20.700000000000003</v>
+        <v>27.770000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43232</v>
+        <v>43233</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1789,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>316.69999999999993</v>
+        <v>323.97999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.50916398713826361</v>
+        <v>0.52086816720257223</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2775,8 +2775,8 @@
         <v>43233</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 6.5 + 7.12 + 7.08 + 7.07</f>
-        <v>27.770000000000003</v>
+        <f xml:space="preserve"> 6.5 + 7.12 + 7.08 + 7.07 + 7.15 + 0.13</f>
+        <v>35.050000000000004</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2888,7 +2888,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>27.770000000000003</v>
+        <v>35.050000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43233</v>
+        <v>43236</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>323.97999999999996</v>
+        <v>330.10999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.52086816720257223</v>
+        <v>0.53072347266881026</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,10 @@
         <f t="shared" si="28"/>
         <v>43240</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24">
+        <f xml:space="preserve"> 6.13</f>
+        <v>6.13</v>
+      </c>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2888,7 +2891,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>35.050000000000004</v>
+        <v>41.180000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>330.10999999999996</v>
+        <v>337.24999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.53072347266881026</v>
+        <v>0.54220257234726676</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2814,8 +2814,8 @@
         <v>43240</v>
       </c>
       <c r="J28" s="24">
-        <f xml:space="preserve"> 6.13</f>
-        <v>6.13</v>
+        <f xml:space="preserve"> 6.13 + 7.14</f>
+        <v>13.27</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>41.180000000000007</v>
+        <v>48.320000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>337.24999999999994</v>
+        <v>341.03</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.54220257234726676</v>
+        <v>0.54827974276527325</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2814,8 +2814,8 @@
         <v>43240</v>
       </c>
       <c r="J28" s="24">
-        <f xml:space="preserve"> 6.13 + 7.14</f>
-        <v>13.27</v>
+        <f xml:space="preserve"> 6.13 + 7.14 + 3.78</f>
+        <v>17.05</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>48.320000000000007</v>
+        <v>52.100000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43238</v>
+        <v>43240</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>341.03</v>
+        <v>349.37999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.54827974276527325</v>
+        <v>0.56170418006430856</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2814,8 +2814,8 @@
         <v>43240</v>
       </c>
       <c r="J28" s="24">
-        <f xml:space="preserve"> 6.13 + 7.14 + 3.78</f>
-        <v>17.05</v>
+        <f xml:space="preserve"> 6.13 + 7.14 + 3.78 + 7.07 + 1.28</f>
+        <v>25.400000000000002</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>52.100000000000009</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43240</v>
+        <v>43241</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>349.37999999999994</v>
+        <v>357.79999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.56170418006430856</v>
+        <v>0.57524115755627003</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,10 @@
         <f t="shared" si="30"/>
         <v>43247</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24">
+        <f xml:space="preserve"> 7.1 + 1.32</f>
+        <v>8.42</v>
+      </c>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,7 +2894,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>60.45</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43241</v>
+        <v>43244</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>357.79999999999995</v>
+        <v>364.86999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.57524115755627003</v>
+        <v>0.58660771704180059</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2853,8 +2853,8 @@
         <v>43247</v>
       </c>
       <c r="J29" s="24">
-        <f xml:space="preserve"> 7.1 + 1.32</f>
-        <v>8.42</v>
+        <f xml:space="preserve"> 7.1 + 1.32 + 7.07</f>
+        <v>15.49</v>
       </c>
       <c r="K29" s="24"/>
     </row>
@@ -2894,7 +2894,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>68.87</v>
+        <v>75.94</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43245</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>364.86999999999995</v>
+        <v>372.01999999999992</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.58660771704180059</v>
+        <v>0.59810289389067517</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2853,8 +2853,8 @@
         <v>43247</v>
       </c>
       <c r="J29" s="24">
-        <f xml:space="preserve"> 7.1 + 1.32 + 7.07</f>
-        <v>15.49</v>
+        <f xml:space="preserve"> 7.1 + 1.32 + 7.07 + 7.15</f>
+        <v>22.64</v>
       </c>
       <c r="K29" s="24"/>
     </row>
@@ -2894,7 +2894,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>75.94</v>
+        <v>83.09</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43245</v>
+        <v>43253</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>372.01999999999992</v>
+        <v>377.93999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.59810289389067517</v>
+        <v>0.60762057877813491</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,13 @@
         <f t="shared" si="31"/>
         <v>43254</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24">
+        <f xml:space="preserve"> 5.92</f>
+        <v>5.92</v>
+      </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>83.09</v>
+        <v>89.01</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43253</v>
+        <v>43261</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>377.93999999999994</v>
+        <v>382.28999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.60762057877813491</v>
+        <v>0.61461414790996782</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,10 @@
         <f t="shared" si="32"/>
         <v>43261</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <f xml:space="preserve"> 4.35</f>
+        <v>4.3499999999999996</v>
+      </c>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,7 +3047,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43261</v>
+        <v>43267</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>382.28999999999996</v>
+        <v>390.47999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.61461414790996782</v>
+        <v>0.62778135048231509</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,10 @@
         <f t="shared" si="33"/>
         <v>43268</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24">
+        <f xml:space="preserve"> 8.19</f>
+        <v>8.19</v>
+      </c>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3047,7 +3050,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>4.3499999999999996</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43267</v>
+        <v>43272</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>390.47999999999996</v>
+        <v>399.30999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.62778135048231509</v>
+        <v>0.64197749196141474</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,10 @@
         <f t="shared" si="34"/>
         <v>43275</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24">
+        <f xml:space="preserve"> 8.83</f>
+        <v>8.83</v>
+      </c>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3050,7 +3053,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>12.54</v>
+        <v>21.369999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43272</v>
+        <v>43274</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>399.30999999999995</v>
+        <v>408.96</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.64197749196141474</v>
+        <v>0.65749196141479094</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3012,8 +3012,8 @@
         <v>43275</v>
       </c>
       <c r="J33" s="24">
-        <f xml:space="preserve"> 8.83</f>
-        <v>8.83</v>
+        <f xml:space="preserve"> 8.83 + 9.65</f>
+        <v>18.48</v>
       </c>
       <c r="K33" s="24"/>
     </row>
@@ -3053,7 +3053,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>21.369999999999997</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43274</v>
+        <v>43275</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>408.96</v>
+        <v>418.89</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.65749196141479094</v>
+        <v>0.67345659163987137</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3012,8 +3012,8 @@
         <v>43275</v>
       </c>
       <c r="J33" s="24">
-        <f xml:space="preserve"> 8.83 + 9.65</f>
-        <v>18.48</v>
+        <f xml:space="preserve"> 8.83 + 9.65 + 8.81 + 1.12</f>
+        <v>28.41</v>
       </c>
       <c r="K33" s="24"/>
     </row>
@@ -3053,7 +3053,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>31.02</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43275</v>
+        <v>43281</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>418.89</v>
+        <v>427.77</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.67345659163987137</v>
+        <v>0.68773311897106104</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3050,10 +3050,13 @@
         <f t="shared" si="35"/>
         <v>43282</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="24">
+        <f xml:space="preserve"> 8.88</f>
+        <v>8.8800000000000008</v>
+      </c>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>40.950000000000003</v>
+        <v>49.830000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43281</v>
+        <v>43286</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>427.77</v>
+        <v>434.09</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.68773311897106104</v>
+        <v>0.6978938906752411</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,10 @@
         <f t="shared" si="36"/>
         <v>43289</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="24">
+        <f xml:space="preserve"> 6.32</f>
+        <v>6.32</v>
+      </c>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3239,7 +3242,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>0</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43286</v>
+        <v>43309</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1789,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>434.09</v>
+        <v>442.97999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.6978938906752411</v>
+        <v>0.71218649517684884</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,10 @@
         <f t="shared" si="40"/>
         <v>43310</v>
       </c>
-      <c r="J38" s="24"/>
+      <c r="J38" s="24">
+        <f xml:space="preserve"> 8.89</f>
+        <v>8.89</v>
+      </c>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3242,7 +3245,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>6.32</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43309</v>
+        <v>43316</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>442.97999999999996</v>
+        <v>452.06999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.71218649517684884</v>
+        <v>0.72680064308681658</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3242,10 +3242,13 @@
         <f t="shared" si="41"/>
         <v>43317</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="24">
+        <f xml:space="preserve"> 9.09</f>
+        <v>9.09</v>
+      </c>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>15.21</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43316</v>
+        <v>43317</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>452.06999999999994</v>
+        <v>459.09</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.72680064308681658</v>
+        <v>0.73808681672025722</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,12 +3243,12 @@
         <v>43317</v>
       </c>
       <c r="J39" s="24">
-        <f xml:space="preserve"> 9.09</f>
-        <v>9.09</v>
+        <f xml:space="preserve"> 9.09 + 7.02</f>
+        <v>16.11</v>
       </c>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>24.3</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43317</v>
+        <v>43319</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>459.09</v>
+        <v>466.26</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.73808681672025722</v>
+        <v>0.74961414790996783</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,10 @@
         <f t="shared" si="42"/>
         <v>43324</v>
       </c>
-      <c r="J40" s="24"/>
+      <c r="J40" s="24">
+        <f xml:space="preserve"> 7.17</f>
+        <v>7.17</v>
+      </c>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3395,7 +3398,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>0</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43319</v>
+        <v>43332</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>466.26</v>
+        <v>477.92</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.74961414790996783</v>
+        <v>0.76836012861736336</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,10 @@
         <f t="shared" si="44"/>
         <v>43331</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="24">
+        <f xml:space="preserve"> 3.62 + 8.04</f>
+        <v>11.66</v>
+      </c>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3398,7 +3401,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>7.17</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43332</v>
+        <v>43333</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>477.92</v>
+        <v>485.3</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.76836012861736336</v>
+        <v>0.78022508038585214</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,10 @@
         <f t="shared" si="45"/>
         <v>43338</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="24">
+        <f xml:space="preserve"> 7.38</f>
+        <v>7.38</v>
+      </c>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3401,7 +3404,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>18.829999999999998</v>
+        <v>26.209999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43333</v>
+        <v>43345</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>485.3</v>
+        <v>495</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.78022508038585214</v>
+        <v>0.79581993569131837</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3401,10 +3401,13 @@
         <f t="shared" si="46"/>
         <v>43345</v>
       </c>
-      <c r="J43" s="24"/>
+      <c r="J43" s="24">
+        <f xml:space="preserve"> 9.7</f>
+        <v>9.6999999999999993</v>
+      </c>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>26.209999999999997</v>
+        <v>35.909999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>495</v>
+        <v>501.03000000000003</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.79581993569131837</v>
+        <v>0.80551446945337624</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3402,12 +3402,12 @@
         <v>43345</v>
       </c>
       <c r="J43" s="24">
-        <f xml:space="preserve"> 9.7</f>
-        <v>9.6999999999999993</v>
+        <f xml:space="preserve"> 9.7 + 6.03</f>
+        <v>15.73</v>
       </c>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>35.909999999999997</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43345</v>
+        <v>43351</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>501.03000000000003</v>
+        <v>508.57000000000005</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.80551446945337624</v>
+        <v>0.81763665594855317</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,10 @@
         <f t="shared" si="47"/>
         <v>43352</v>
       </c>
-      <c r="J44" s="24"/>
+      <c r="J44" s="24">
+        <f xml:space="preserve"> 7.54</f>
+        <v>7.54</v>
+      </c>
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3554,7 +3557,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>0</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43351</v>
+        <v>43352</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>508.57000000000005</v>
+        <v>515.87</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.81763665594855317</v>
+        <v>0.82937299035369771</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3444,8 +3444,8 @@
         <v>43352</v>
       </c>
       <c r="J44" s="24">
-        <f xml:space="preserve"> 7.54</f>
-        <v>7.54</v>
+        <f xml:space="preserve"> 7.54 + 5.5 + 1.8</f>
+        <v>14.84</v>
       </c>
       <c r="K44" s="24"/>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>7.54</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43352</v>
+        <v>43358</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>515.87</v>
+        <v>524.11</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.82937299035369771</v>
+        <v>0.84262057877813512</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,10 @@
         <f t="shared" si="48"/>
         <v>43359</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="24">
+        <f xml:space="preserve"> 8.24</f>
+        <v>8.24</v>
+      </c>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3557,7 +3560,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>14.84</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43358</v>
+        <v>43359</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>524.11</v>
+        <v>532.71</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.84262057877813512</v>
+        <v>0.85644694533762067</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3483,8 +3483,8 @@
         <v>43359</v>
       </c>
       <c r="J45" s="24">
-        <f xml:space="preserve"> 8.24</f>
-        <v>8.24</v>
+        <f xml:space="preserve"> 8.24 + 8.6</f>
+        <v>16.84</v>
       </c>
       <c r="K45" s="24"/>
     </row>
@@ -3560,7 +3560,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>23.08</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43359</v>
+        <v>43366</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>532.71</v>
+        <v>554.32000000000005</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.85644694533762067</v>
+        <v>0.89118971061093255</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,10 @@
         <f t="shared" si="49"/>
         <v>43366</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="24">
+        <f xml:space="preserve"> 6.72 + 8.61 + 6.28</f>
+        <v>21.61</v>
+      </c>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3560,7 +3563,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>31.68</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43366</v>
+        <v>43371</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>554.32000000000005</v>
+        <v>560.7600000000001</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.89118971061093255</v>
+        <v>0.90154340836012881</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3560,10 +3560,13 @@
         <f t="shared" si="50"/>
         <v>43373</v>
       </c>
-      <c r="J47" s="24"/>
+      <c r="J47" s="24">
+        <f xml:space="preserve"> 6.44</f>
+        <v>6.44</v>
+      </c>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>53.29</v>
+        <v>59.73</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43371</v>
+        <v>43373</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>560.7600000000001</v>
+        <v>570.88</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.90154340836012881</v>
+        <v>0.91781350482315116</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3561,12 +3561,12 @@
         <v>43373</v>
       </c>
       <c r="J47" s="24">
-        <f xml:space="preserve"> 6.44</f>
-        <v>6.44</v>
+        <f xml:space="preserve"> 6.44 + 10.12</f>
+        <v>16.559999999999999</v>
       </c>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>59.73</v>
+        <v>69.849999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43373</v>
+        <v>43379</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>570.88</v>
+        <v>585.23</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.91781350482315116</v>
+        <v>0.94088424437299034</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,10 @@
         <f t="shared" si="51"/>
         <v>43380</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="24">
+        <f xml:space="preserve"> 6.09 + 8.26</f>
+        <v>14.35</v>
+      </c>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,7 +3752,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>0</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43379</v>
+        <v>43387</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>585.23</v>
+        <v>594.36</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.94088424437299034</v>
+        <v>0.95556270096463025</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,10 @@
         <f t="shared" si="52"/>
         <v>43387</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="24">
+        <f xml:space="preserve"> 9.13</f>
+        <v>9.1300000000000008</v>
+      </c>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>14.35</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43387</v>
+        <v>43390</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>594.36</v>
+        <v>600.4</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.95556270096463025</v>
+        <v>0.96527331189710608</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,10 @@
         <f t="shared" si="54"/>
         <v>43394</v>
       </c>
-      <c r="J50" s="24"/>
+      <c r="J50" s="24">
+        <f xml:space="preserve"> 6.04</f>
+        <v>6.04</v>
+      </c>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3755,7 +3758,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>23.48</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43390</v>
+        <v>43392</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43392</v>
+        <v>43394</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>600.4</v>
+        <v>619.06000000000006</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.96527331189710608</v>
+        <v>0.99527331189710622</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3681,8 +3681,8 @@
         <v>43394</v>
       </c>
       <c r="J50" s="24">
-        <f xml:space="preserve"> 6.04</f>
-        <v>6.04</v>
+        <f xml:space="preserve"> 6.04 + 10.54 + 8.12</f>
+        <v>24.699999999999996</v>
       </c>
       <c r="K50" s="24"/>
     </row>
@@ -3758,7 +3758,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>29.52</v>
+        <v>48.179999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles en 2017.xlsx
+++ b/Src/622 miles/Objectif 622 miles en 2017.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43394</v>
+        <v>43400</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1792,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>619.06000000000006</v>
+        <v>628.20000000000005</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.99527331189710622</v>
+        <v>1.0099678456591641</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,9 @@
         <f t="shared" si="55"/>
         <v>43401</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="J51" s="24">
+        <v>9.14</v>
+      </c>
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3758,7 +3760,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>48.179999999999993</v>
+        <v>57.319999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
